--- a/Experimental_Log/experiment.xlsx
+++ b/Experimental_Log/experiment.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="187">
   <si>
     <t>Test ID</t>
     <phoneticPr fontId="4"/>
@@ -421,9 +421,6 @@
 Precision score: 0.0
 Recall score: 0.0</t>
     <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>SVC return 1 to all</t>
   </si>
   <si>
     <t>SVC return 0 to all</t>
@@ -558,10 +555,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>1.*, 5.* (exclude 5.3)</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>2.*, 5.* (exclude 5.4)</t>
     <phoneticPr fontId="4"/>
   </si>
@@ -642,6 +635,47 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
+    <t>explained_variance_score: -318.715078169
+mean_absolute_error: 0.359597616653
+mean_squared_error: 0.166364648087
+mean_squared_log_error: 0.0867083700156
+median_absolute_error: 0.263457400301
+r2_score: -325.53829981</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>1.*, 3.*, 5.*</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>3:7</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>Include docId, adId with document, ad, statistical feature with LiR</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>Support Vector Machine</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>Include docId, adId with document, ad, statistical feature with Support Vector Machine (SVM)</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>1.*, 3.*, 5.*</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>3:7</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>1.*, 5.* (exclude 5.3)</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
     <t>explained_variance_score: -694.443101738
 mean_absolute_error: 0.32485622183
 mean_squared_error: 0.162695067784
@@ -650,12 +684,211 @@
 r2_score: -694.445545506</t>
     <phoneticPr fontId="4"/>
   </si>
+  <si>
+    <t>explained_variance_score: -31.6228324041
+mean_absolute_error: 0.315642560347
+mean_squared_error: 0.15774267549
+mean_squared_log_error: 0.0775836964744
+median_absolute_error: 0.201335280803
+r2_score: -31.6229674709</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <r>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. Document Sub Feature</t>
+    </r>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>Topics</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <r>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ategories</t>
+    </r>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>int vector n-size</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <r>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ategory features of document</t>
+    </r>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <r>
+      <t>T</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>opic features of document</t>
+    </r>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>int vector n-size</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>3:7</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>SVM training cost too much time</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>SVC return 0 to all</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>explained_variance_score: -31.2350551916
+mean_absolute_error: 0.316116585896
+mean_squared_error: 0.158503656804
+mean_squared_log_error: 0.0778517342266
+median_absolute_error: 0.199596476871
+r2_score: -31.2350738936</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>1.*, 3.*, 5.*, 6.*</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>All id, statistical feature and document encoding feature(size=20) with LiR</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>All id, statistical feature and document encoding feature(size = 8) with LiR</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>3:7</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>Accuracy score: 0.691028033181
+Precision score: 0.235510067861
+Recall score: 0.235510067861</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>class_weight={0:0.2, 1:0.8}</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>Accuracy score: 0.68761099746
+Precision score: 0.227055289799
+Recall score: 0.227055289799</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>5.*</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>5.*</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>Accuracy score: 0.705055864038
+Precision score: 0.270219156747
+Recall score: 0.270219156747</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>Logistic Regression with custom result convert</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>Linear Regression with custom result convert</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>Logistic Regression with custom result convert (in each display, the maximum probability of ad has clicked=1, the others' clicked become 0)</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>Accuracy score: 0.689993930265
+Precision score: 0.232951385026
+Recall score: 0.232951385026</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>5.*</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>Raw feature with LiR and verify by custom convert</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>Raw feature, statistical feature with LiR and verify by custom convert</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>class_weight={0:0.5, 1:0.5}.
+The result of class 0 is always around 0.8+</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>Raw feature with LoR and verify by custom convert (class_weight 1/4)</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>Raw feature with LoR and verify by custom convert (class_weight 1/1)</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>1.*, 3.*, 5.*, 6.*</t>
+    <phoneticPr fontId="4"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -703,6 +936,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="游ゴシック"/>
@@ -720,7 +985,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -760,6 +1025,12 @@
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-9.9948118533890809E-2"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
       </patternFill>
     </fill>
   </fills>
@@ -839,7 +1110,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
@@ -856,23 +1127,20 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -882,92 +1150,124 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" quotePrefix="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="56" fontId="8" fillId="3" borderId="2" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="9" fillId="2" borderId="2" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="5" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="7" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="3" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="20" fontId="1" fillId="2" borderId="2" xfId="1" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="20" fontId="3" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="4" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2" quotePrefix="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" xfId="4" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="4" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="6" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="6" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="4" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="4" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="56" fontId="2" fillId="3" borderId="2" xfId="2" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="3" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="5" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="7">
     <cellStyle name="20% - Accent4" xfId="5" builtinId="42"/>
     <cellStyle name="40% - Accent1" xfId="2" builtinId="31"/>
     <cellStyle name="40% - Accent2" xfId="4" builtinId="35"/>
+    <cellStyle name="40% - Accent5" xfId="6" builtinId="47"/>
     <cellStyle name="60% - Accent1" xfId="3" builtinId="32"/>
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1248,658 +1548,764 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H34"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="7.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="58" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.75" style="1" customWidth="1"/>
-    <col min="4" max="4" width="27.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="53.25" style="15" customWidth="1"/>
-    <col min="8" max="8" width="25" style="15" customWidth="1"/>
-    <col min="9" max="9" width="9" style="15"/>
-    <col min="10" max="10" width="16.5" style="15" customWidth="1"/>
-    <col min="11" max="11" width="10.5" style="15" customWidth="1"/>
-    <col min="12" max="12" width="34" style="15" customWidth="1"/>
-    <col min="13" max="13" width="68.125" style="15" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.5" style="15" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9" style="15"/>
-    <col min="16" max="16" width="11.75" style="15" customWidth="1"/>
-    <col min="17" max="17" width="18.625" style="15" customWidth="1"/>
-    <col min="18" max="18" width="14.75" style="15" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9" style="15"/>
+    <col min="1" max="1" width="7.625" style="37" customWidth="1"/>
+    <col min="2" max="2" width="58" style="37" customWidth="1"/>
+    <col min="3" max="3" width="13.75" style="37" customWidth="1"/>
+    <col min="4" max="4" width="27.5" style="37" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.125" style="37" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.375" style="37" customWidth="1"/>
+    <col min="7" max="7" width="53.25" style="10" customWidth="1"/>
+    <col min="8" max="8" width="25" style="10" customWidth="1"/>
+    <col min="9" max="9" width="9" style="10"/>
+    <col min="10" max="10" width="16.5" style="10" customWidth="1"/>
+    <col min="11" max="11" width="10.5" style="10" customWidth="1"/>
+    <col min="12" max="12" width="34" style="10" customWidth="1"/>
+    <col min="13" max="13" width="68.125" style="10" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.5" style="10" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9" style="10"/>
+    <col min="16" max="16" width="11.75" style="10" customWidth="1"/>
+    <col min="17" max="17" width="18.625" style="10" customWidth="1"/>
+    <col min="18" max="18" width="14.75" style="10" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="H1" s="9" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A2" s="10">
+      <c r="A2" s="11">
         <v>1</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="C2" s="10">
+      <c r="C2" s="11">
         <v>87141731</v>
       </c>
-      <c r="D2" s="21" t="s">
+      <c r="D2" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="30" t="s">
+      <c r="F2" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="G2" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="H2" s="18"/>
+      <c r="H2" s="14"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A3" s="6">
+      <c r="A3" s="15">
         <v>2</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="15">
         <v>148275</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="F3" s="19" t="s">
+      <c r="F3" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="G3" s="16" t="s">
+      <c r="G3" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="H3" s="16" t="s">
+      <c r="H3" s="18" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A4" s="15">
+        <v>3</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="C4" s="15">
+        <v>148275</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="G4" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="H4" s="18" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A5" s="15">
+        <v>4</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="C5" s="15">
+        <v>148275</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="G5" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="H5" s="18" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A6" s="15">
+        <v>5</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="C6" s="15">
+        <v>148275</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="G6" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="H6" s="18" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A7" s="15">
+        <v>6</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="C7" s="15">
+        <v>148275</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="G7" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="H7" s="18" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A4" s="6">
-        <v>3</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="C4" s="6">
+    <row r="8" spans="1:8" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A8" s="15">
+        <v>7</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="F8" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="G8" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="H8" s="18" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A9" s="15">
+        <v>8</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="F9" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="G9" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="H9" s="18" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A10" s="15">
+        <v>9</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="G10" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="H10" s="18" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A11" s="15">
+        <v>10</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="G11" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="H11" s="18" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A12" s="19">
+        <v>11</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="E12" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="F12" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="G12" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="H12" s="21"/>
+    </row>
+    <row r="13" spans="1:8" ht="112.5" x14ac:dyDescent="0.4">
+      <c r="A13" s="22">
+        <v>12</v>
+      </c>
+      <c r="B13" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="C13" s="22">
         <v>148275</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="G4" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="H4" s="16" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A5" s="6">
-        <v>4</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="C5" s="6">
+      <c r="D13" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="E13" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="F13" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="G13" s="24" t="s">
+        <v>153</v>
+      </c>
+      <c r="H13" s="24"/>
+    </row>
+    <row r="14" spans="1:8" ht="112.5" x14ac:dyDescent="0.4">
+      <c r="A14" s="25">
+        <v>12</v>
+      </c>
+      <c r="B14" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="C14" s="25">
         <v>148275</v>
       </c>
-      <c r="D5" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="G5" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="H5" s="16" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A6" s="6">
-        <v>5</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="C6" s="6">
+      <c r="D14" s="25" t="s">
+        <v>152</v>
+      </c>
+      <c r="E14" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="F14" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="G14" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="H14" s="27" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="112.5" x14ac:dyDescent="0.4">
+      <c r="A15" s="28">
+        <v>13</v>
+      </c>
+      <c r="B15" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="C15" s="28">
         <v>148275</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="G6" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="H6" s="16" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A7" s="6">
-        <v>6</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="C7" s="6">
+      <c r="D15" s="28" t="s">
+        <v>129</v>
+      </c>
+      <c r="E15" s="28" t="s">
+        <v>120</v>
+      </c>
+      <c r="F15" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="G15" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="H15" s="31" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="112.5" x14ac:dyDescent="0.4">
+      <c r="A16" s="25">
+        <v>14</v>
+      </c>
+      <c r="B16" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="C16" s="25">
         <v>148275</v>
       </c>
-      <c r="D7" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="G7" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="H7" s="16" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="56.25" x14ac:dyDescent="0.4">
-      <c r="A8" s="6">
-        <v>7</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="F8" s="19" t="s">
+      <c r="D16" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="E16" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="F16" s="26" t="s">
         <v>93</v>
       </c>
-      <c r="G8" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="H8" s="16" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="56.25" x14ac:dyDescent="0.4">
-      <c r="A9" s="6">
-        <v>8</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="F9" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="G9" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="H9" s="16" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="56.25" x14ac:dyDescent="0.4">
-      <c r="A10" s="6">
-        <v>9</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="F10" s="19" t="s">
-        <v>92</v>
-      </c>
-      <c r="G10" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="H10" s="16" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="56.25" x14ac:dyDescent="0.4">
-      <c r="A11" s="6">
-        <v>10</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="E11" s="6" t="s">
+      <c r="G16" s="27" t="s">
+        <v>131</v>
+      </c>
+      <c r="H16" s="32" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="112.5" x14ac:dyDescent="0.4">
+      <c r="A17" s="25">
+        <v>15</v>
+      </c>
+      <c r="B17" s="25" t="s">
+        <v>135</v>
+      </c>
+      <c r="C17" s="25">
+        <v>148275</v>
+      </c>
+      <c r="D17" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="E17" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="F17" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="F11" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="G11" s="16" t="s">
-        <v>105</v>
-      </c>
-      <c r="H11" s="16" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="56.25" x14ac:dyDescent="0.4">
-      <c r="A12" s="33">
-        <v>11</v>
-      </c>
-      <c r="B12" s="33" t="s">
-        <v>113</v>
-      </c>
-      <c r="C12" s="33" t="s">
-        <v>90</v>
-      </c>
-      <c r="D12" s="33" t="s">
-        <v>69</v>
-      </c>
-      <c r="E12" s="33" t="s">
-        <v>88</v>
-      </c>
-      <c r="F12" s="34" t="s">
-        <v>93</v>
-      </c>
-      <c r="G12" s="35" t="s">
-        <v>112</v>
-      </c>
-      <c r="H12" s="35"/>
-    </row>
-    <row r="13" spans="1:8" ht="112.5" x14ac:dyDescent="0.4">
-      <c r="A13" s="5">
-        <v>12</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="C13" s="5">
+      <c r="G17" s="27" t="s">
+        <v>132</v>
+      </c>
+      <c r="H17" s="32" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="112.5" x14ac:dyDescent="0.4">
+      <c r="A18" s="33">
+        <v>16</v>
+      </c>
+      <c r="B18" s="33" t="s">
+        <v>141</v>
+      </c>
+      <c r="C18" s="33">
         <v>148275</v>
       </c>
-      <c r="D13" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="F13" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="G13" s="17" t="s">
+      <c r="D18" s="33" t="s">
+        <v>137</v>
+      </c>
+      <c r="E18" s="33" t="s">
+        <v>136</v>
+      </c>
+      <c r="F18" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="G18" s="35" t="s">
+        <v>134</v>
+      </c>
+      <c r="H18" s="31" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="112.5" x14ac:dyDescent="0.4">
+      <c r="A19" s="40">
+        <v>17</v>
+      </c>
+      <c r="B19" s="40" t="s">
+        <v>147</v>
+      </c>
+      <c r="C19" s="40">
+        <v>148275</v>
+      </c>
+      <c r="D19" s="40" t="s">
+        <v>145</v>
+      </c>
+      <c r="E19" s="40" t="s">
+        <v>120</v>
+      </c>
+      <c r="F19" s="41" t="s">
         <v>146</v>
       </c>
-      <c r="H13" s="17"/>
-    </row>
-    <row r="14" spans="1:8" ht="112.5" x14ac:dyDescent="0.4">
-      <c r="A14" s="11">
-        <v>12</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="C14" s="11">
+      <c r="G19" s="42" t="s">
+        <v>143</v>
+      </c>
+      <c r="H19" s="42"/>
+    </row>
+    <row r="20" spans="1:8" ht="112.5" x14ac:dyDescent="0.4">
+      <c r="A20" s="43">
+        <v>18</v>
+      </c>
+      <c r="B20" s="43" t="s">
+        <v>149</v>
+      </c>
+      <c r="C20" s="43">
         <v>148275</v>
       </c>
-      <c r="D14" s="11" t="s">
-        <v>130</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="F14" s="31" t="s">
-        <v>93</v>
-      </c>
-      <c r="G14" s="32" t="s">
-        <v>122</v>
-      </c>
-      <c r="H14" s="32" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="112.5" x14ac:dyDescent="0.4">
-      <c r="A15" s="22">
-        <v>13</v>
-      </c>
-      <c r="B15" s="22" t="s">
-        <v>123</v>
-      </c>
-      <c r="C15" s="22">
+      <c r="D20" s="43" t="s">
+        <v>150</v>
+      </c>
+      <c r="E20" s="43" t="s">
+        <v>148</v>
+      </c>
+      <c r="F20" s="44" t="s">
+        <v>151</v>
+      </c>
+      <c r="G20" s="45" t="s">
+        <v>144</v>
+      </c>
+      <c r="H20" s="45" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="112.5" x14ac:dyDescent="0.4">
+      <c r="A21" s="22">
+        <v>19</v>
+      </c>
+      <c r="B21" s="22" t="s">
+        <v>167</v>
+      </c>
+      <c r="C21" s="22">
         <v>148275</v>
       </c>
-      <c r="D15" s="22" t="s">
-        <v>131</v>
-      </c>
-      <c r="E15" s="22" t="s">
-        <v>121</v>
-      </c>
-      <c r="F15" s="23" t="s">
-        <v>109</v>
-      </c>
-      <c r="G15" s="24" t="s">
-        <v>125</v>
-      </c>
-      <c r="H15" s="25" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="112.5" x14ac:dyDescent="0.4">
-      <c r="A16" s="11">
-        <v>14</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="C16" s="11">
+      <c r="D21" s="22" t="s">
+        <v>166</v>
+      </c>
+      <c r="E21" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="F21" s="36" t="s">
+        <v>162</v>
+      </c>
+      <c r="G21" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="H21" s="24"/>
+    </row>
+    <row r="22" spans="1:8" ht="112.5" x14ac:dyDescent="0.4">
+      <c r="A22" s="22">
+        <v>20</v>
+      </c>
+      <c r="B22" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="C22" s="22">
         <v>148275</v>
       </c>
-      <c r="D16" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="E16" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="F16" s="31" t="s">
-        <v>93</v>
-      </c>
-      <c r="G16" s="32" t="s">
-        <v>133</v>
-      </c>
-      <c r="H16" s="36" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="112.5" x14ac:dyDescent="0.4">
-      <c r="A17" s="11">
-        <v>15</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>137</v>
-      </c>
-      <c r="C17" s="11">
+      <c r="D22" s="22" t="s">
+        <v>166</v>
+      </c>
+      <c r="E22" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="F22" s="36" t="s">
+        <v>169</v>
+      </c>
+      <c r="G22" s="24" t="s">
+        <v>165</v>
+      </c>
+      <c r="H22" s="24"/>
+    </row>
+    <row r="23" spans="1:8" ht="93.75" x14ac:dyDescent="0.4">
+      <c r="A23" s="22">
+        <v>21</v>
+      </c>
+      <c r="B23" s="22" t="s">
+        <v>185</v>
+      </c>
+      <c r="C23" s="22">
         <v>148275</v>
       </c>
-      <c r="D17" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="E17" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="F17" s="31" t="s">
-        <v>109</v>
-      </c>
-      <c r="G17" s="32" t="s">
-        <v>134</v>
-      </c>
-      <c r="H17" s="36" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="112.5" x14ac:dyDescent="0.4">
-      <c r="A18" s="26">
-        <v>16</v>
-      </c>
-      <c r="B18" s="26" t="s">
-        <v>143</v>
-      </c>
-      <c r="C18" s="26">
+      <c r="D23" s="22" t="s">
+        <v>174</v>
+      </c>
+      <c r="E23" s="22" t="s">
+        <v>178</v>
+      </c>
+      <c r="F23" s="36" t="s">
+        <v>169</v>
+      </c>
+      <c r="G23" s="24" t="s">
+        <v>172</v>
+      </c>
+      <c r="H23" s="24" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A24" s="22">
+        <v>22</v>
+      </c>
+      <c r="B24" s="22" t="s">
+        <v>184</v>
+      </c>
+      <c r="C24" s="22">
         <v>148275</v>
       </c>
-      <c r="D18" s="26" t="s">
-        <v>139</v>
-      </c>
-      <c r="E18" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="F18" s="27" t="s">
-        <v>109</v>
-      </c>
-      <c r="G18" s="28" t="s">
-        <v>136</v>
-      </c>
-      <c r="H18" s="25" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="112.5" x14ac:dyDescent="0.4">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="17" t="s">
-        <v>145</v>
-      </c>
-      <c r="H19" s="17"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A20" s="5"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="29"/>
-      <c r="H20" s="17"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A21" s="5"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="17"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A22" s="5"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="17"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A23" s="5"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="17"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A24" s="5"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="17"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A25" s="5"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="17"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A26" s="5"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="17"/>
-      <c r="H26" s="17"/>
+      <c r="D24" s="22" t="s">
+        <v>173</v>
+      </c>
+      <c r="E24" s="22" t="s">
+        <v>176</v>
+      </c>
+      <c r="F24" s="23" t="s">
+        <v>169</v>
+      </c>
+      <c r="G24" s="24" t="s">
+        <v>170</v>
+      </c>
+      <c r="H24" s="24" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A25" s="22">
+        <v>23</v>
+      </c>
+      <c r="B25" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="C25" s="22">
+        <v>148275</v>
+      </c>
+      <c r="D25" s="22" t="s">
+        <v>180</v>
+      </c>
+      <c r="E25" s="22" t="s">
+        <v>177</v>
+      </c>
+      <c r="F25" s="23" t="s">
+        <v>169</v>
+      </c>
+      <c r="G25" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="H25" s="24"/>
+    </row>
+    <row r="26" spans="1:8" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A26" s="22">
+        <v>24</v>
+      </c>
+      <c r="B26" s="22" t="s">
+        <v>182</v>
+      </c>
+      <c r="C26" s="22">
+        <v>148275</v>
+      </c>
+      <c r="D26" s="22" t="s">
+        <v>186</v>
+      </c>
+      <c r="E26" s="22" t="s">
+        <v>177</v>
+      </c>
+      <c r="F26" s="36" t="s">
+        <v>169</v>
+      </c>
+      <c r="G26" s="24" t="s">
+        <v>175</v>
+      </c>
+      <c r="H26" s="24"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A27" s="5"/>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="17"/>
-      <c r="H27" s="17"/>
+      <c r="A27" s="22"/>
+      <c r="B27" s="22"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="24"/>
+      <c r="H27" s="24"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A28" s="5"/>
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="17"/>
-      <c r="H28" s="17"/>
+      <c r="A28" s="22"/>
+      <c r="B28" s="22"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="22"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="24"/>
+      <c r="H28" s="24"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A29" s="5"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="17"/>
-      <c r="H29" s="17"/>
+      <c r="A29" s="22"/>
+      <c r="B29" s="22"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="22"/>
+      <c r="G29" s="24"/>
+      <c r="H29" s="24"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A30" s="5"/>
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="17"/>
-      <c r="H30" s="17"/>
+      <c r="A30" s="22"/>
+      <c r="B30" s="22"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="22"/>
+      <c r="G30" s="24"/>
+      <c r="H30" s="24"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A31" s="5"/>
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="17"/>
-      <c r="H31" s="17"/>
+      <c r="A31" s="22"/>
+      <c r="B31" s="22"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="22"/>
+      <c r="G31" s="24"/>
+      <c r="H31" s="24"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A32" s="5"/>
-      <c r="B32" s="5"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="17"/>
-      <c r="H32" s="17"/>
+      <c r="A32" s="22"/>
+      <c r="B32" s="22"/>
+      <c r="C32" s="22"/>
+      <c r="D32" s="22"/>
+      <c r="E32" s="22"/>
+      <c r="F32" s="22"/>
+      <c r="G32" s="24"/>
+      <c r="H32" s="24"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A33" s="5"/>
-      <c r="B33" s="5"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="17"/>
-      <c r="H33" s="17"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A34" s="5"/>
-      <c r="B34" s="5"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="17"/>
-      <c r="H34" s="17"/>
+      <c r="A33" s="22"/>
+      <c r="B33" s="22"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="22"/>
+      <c r="E33" s="22"/>
+      <c r="F33" s="22"/>
+      <c r="G33" s="24"/>
+      <c r="H33" s="24"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4"/>
@@ -1910,10 +2316,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E29"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1926,448 +2332,480 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="1">
         <v>1.1000000000000001</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A3" s="2"/>
-      <c r="B3" s="3">
+      <c r="A3" s="4"/>
+      <c r="B3" s="1">
         <v>1.2</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A4" s="2"/>
-      <c r="B4" s="3">
+      <c r="A4" s="4"/>
+      <c r="B4" s="1">
         <v>1.3</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A5" s="2"/>
-      <c r="B5" s="3">
+      <c r="A5" s="4"/>
+      <c r="B5" s="1">
         <v>1.4</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A6" s="2"/>
-      <c r="B6" s="3">
+      <c r="A6" s="4"/>
+      <c r="B6" s="1">
         <v>1.5</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A7" s="2"/>
-      <c r="B7" s="3">
+      <c r="A7" s="4"/>
+      <c r="B7" s="1">
         <v>1.6</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A8" s="2"/>
-      <c r="B8" s="3">
+      <c r="A8" s="4"/>
+      <c r="B8" s="1">
         <v>1.7</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A9" s="2"/>
-      <c r="B9" s="3">
+      <c r="A9" s="4"/>
+      <c r="B9" s="1">
         <v>1.8</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A10" s="2"/>
-      <c r="B10" s="3">
+      <c r="A10" s="4"/>
+      <c r="B10" s="1">
         <v>1.9</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="1">
         <v>2.1</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A12" s="2"/>
-      <c r="B12" s="3">
+      <c r="A12" s="4"/>
+      <c r="B12" s="1">
         <v>2.2000000000000002</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A13" s="2"/>
-      <c r="B13" s="3">
+      <c r="A13" s="4"/>
+      <c r="B13" s="1">
         <v>2.2999999999999998</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14" s="1">
         <v>3.1</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A15" s="2"/>
-      <c r="B15" s="3">
+      <c r="A15" s="4"/>
+      <c r="B15" s="1">
         <v>3.2</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E15" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A16" s="2"/>
-      <c r="B16" s="3">
+      <c r="A16" s="4"/>
+      <c r="B16" s="1">
         <v>3.3</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="E16" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B17" s="1">
         <v>4.0999999999999996</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="E17" s="1" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A18" s="2"/>
-      <c r="B18" s="3">
+      <c r="A18" s="4"/>
+      <c r="B18" s="1">
         <v>4.2</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="E18" s="1" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A19" s="2"/>
-      <c r="B19" s="3">
+      <c r="A19" s="4"/>
+      <c r="B19" s="1">
         <v>4.3</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D19" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="E19" s="1" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A20" s="7" t="s">
+      <c r="A20" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B20" s="1">
         <v>5.0999999999999996</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="E20" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A21" s="6"/>
+      <c r="B21" s="1">
+        <v>5.2</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="D21" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A22" s="6"/>
+      <c r="B22" s="1">
+        <v>5.3</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A23" s="6"/>
+      <c r="B23" s="1">
+        <v>5.4</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A24" s="6"/>
+      <c r="B24" s="1">
+        <v>5.5</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A25" s="6"/>
+      <c r="B25" s="1">
+        <v>5.6</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E25" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A21" s="8"/>
-      <c r="B21" s="3">
-        <v>5.2</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="E21" s="3" t="s">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A26" s="6"/>
+      <c r="B26" s="1">
+        <v>5.7</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A27" s="6"/>
+      <c r="B27" s="1">
+        <v>5.8</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E27" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A22" s="8"/>
-      <c r="B22" s="3">
-        <v>5.3</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A23" s="8"/>
-      <c r="B23" s="3">
-        <v>5.4</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A24" s="8"/>
-      <c r="B24" s="3">
-        <v>5.5</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A25" s="8"/>
-      <c r="B25" s="3">
-        <v>5.6</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E25" s="3" t="s">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A28" s="7"/>
+      <c r="B28" s="1">
+        <v>5.9</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E28" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A26" s="8"/>
-      <c r="B26" s="3">
-        <v>5.7</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A27" s="8"/>
-      <c r="B27" s="3">
-        <v>5.8</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A28" s="9"/>
-      <c r="B28" s="3">
-        <v>5.9</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="38" t="s">
+        <v>155</v>
+      </c>
+      <c r="B29" s="1">
+        <v>6.1</v>
+      </c>
+      <c r="C29" s="39" t="s">
+        <v>156</v>
+      </c>
+      <c r="D29" s="39" t="s">
+        <v>160</v>
+      </c>
+      <c r="E29" s="39" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A30" s="3"/>
+      <c r="B30" s="1">
+        <v>6.2</v>
+      </c>
+      <c r="C30" s="39" t="s">
+        <v>157</v>
+      </c>
+      <c r="D30" s="39" t="s">
+        <v>159</v>
+      </c>
+      <c r="E30" s="39" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A31" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B29" s="3">
-        <f>COUNT(B2:B28)</f>
-        <v>27</v>
-      </c>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
+      <c r="B31" s="1">
+        <f>COUNT(B2:B30)</f>
+        <v>29</v>
+      </c>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2379,5 +2817,6 @@
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Experimental_Log/experiment.xlsx
+++ b/Experimental_Log/experiment.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="192">
   <si>
     <t>Test ID</t>
     <phoneticPr fontId="4"/>
@@ -881,6 +881,76 @@
   </si>
   <si>
     <t>1.*, 3.*, 5.*, 6.*</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>Accuracy score: 0.68691
+Precision score: 0.235262567653
+Recall score: 0.235941320293</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <r>
+      <t>S</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>GD with custom result convert</t>
+    </r>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.*</t>
+    </r>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <r>
+      <t>R</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>aw feature with SGD and verify by custom convert</t>
+    </r>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00000:87141731</t>
+    </r>
     <phoneticPr fontId="4"/>
   </si>
 </sst>
@@ -1131,25 +1201,13 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1261,6 +1319,24 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -1550,762 +1626,776 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="7.625" style="37" customWidth="1"/>
-    <col min="2" max="2" width="58" style="37" customWidth="1"/>
-    <col min="3" max="3" width="13.75" style="37" customWidth="1"/>
-    <col min="4" max="4" width="27.5" style="37" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.125" style="37" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.375" style="37" customWidth="1"/>
-    <col min="7" max="7" width="53.25" style="10" customWidth="1"/>
-    <col min="8" max="8" width="25" style="10" customWidth="1"/>
-    <col min="9" max="9" width="9" style="10"/>
-    <col min="10" max="10" width="16.5" style="10" customWidth="1"/>
-    <col min="11" max="11" width="10.5" style="10" customWidth="1"/>
-    <col min="12" max="12" width="34" style="10" customWidth="1"/>
-    <col min="13" max="13" width="68.125" style="10" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.5" style="10" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9" style="10"/>
-    <col min="16" max="16" width="11.75" style="10" customWidth="1"/>
-    <col min="17" max="17" width="18.625" style="10" customWidth="1"/>
-    <col min="18" max="18" width="14.75" style="10" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9" style="10"/>
+    <col min="1" max="1" width="7.625" style="33" customWidth="1"/>
+    <col min="2" max="2" width="58" style="33" customWidth="1"/>
+    <col min="3" max="3" width="13.75" style="33" customWidth="1"/>
+    <col min="4" max="4" width="27.5" style="33" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.125" style="33" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.375" style="33" customWidth="1"/>
+    <col min="7" max="7" width="53.25" style="6" customWidth="1"/>
+    <col min="8" max="8" width="25" style="6" customWidth="1"/>
+    <col min="9" max="9" width="9" style="6"/>
+    <col min="10" max="10" width="16.5" style="6" customWidth="1"/>
+    <col min="11" max="11" width="10.5" style="6" customWidth="1"/>
+    <col min="12" max="12" width="34" style="6" customWidth="1"/>
+    <col min="13" max="13" width="68.125" style="6" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9" style="6"/>
+    <col min="16" max="16" width="11.75" style="6" customWidth="1"/>
+    <col min="17" max="17" width="18.625" style="6" customWidth="1"/>
+    <col min="18" max="18" width="14.75" style="6" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A2" s="11">
+      <c r="A2" s="7">
         <v>1</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="C2" s="11">
+      <c r="C2" s="7">
         <v>87141731</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="G2" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="H2" s="14"/>
+      <c r="H2" s="10"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A3" s="15">
+      <c r="A3" s="11">
         <v>2</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="C3" s="15">
+      <c r="C3" s="11">
         <v>148275</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="F3" s="17" t="s">
+      <c r="F3" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="G3" s="18" t="s">
+      <c r="G3" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="H3" s="18" t="s">
+      <c r="H3" s="14" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A4" s="15">
+      <c r="A4" s="11">
         <v>3</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="C4" s="15">
+      <c r="C4" s="11">
         <v>148275</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="E4" s="15" t="s">
+      <c r="E4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="17" t="s">
+      <c r="F4" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="G4" s="18" t="s">
+      <c r="G4" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="H4" s="18" t="s">
+      <c r="H4" s="14" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A5" s="15">
+      <c r="A5" s="11">
         <v>4</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="C5" s="15">
+      <c r="C5" s="11">
         <v>148275</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="E5" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="17" t="s">
+      <c r="F5" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="G5" s="18" t="s">
+      <c r="G5" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="H5" s="18" t="s">
+      <c r="H5" s="14" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A6" s="15">
+      <c r="A6" s="11">
         <v>5</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="C6" s="15">
+      <c r="C6" s="11">
         <v>148275</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="D6" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="E6" s="15" t="s">
+      <c r="E6" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="17" t="s">
+      <c r="F6" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="G6" s="18" t="s">
+      <c r="G6" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="H6" s="18" t="s">
+      <c r="H6" s="14" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A7" s="15">
+      <c r="A7" s="11">
         <v>6</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="C7" s="15">
+      <c r="C7" s="11">
         <v>148275</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="D7" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="E7" s="15" t="s">
+      <c r="E7" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="17" t="s">
+      <c r="F7" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="G7" s="18" t="s">
+      <c r="G7" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="H7" s="18" t="s">
+      <c r="H7" s="14" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="56.25" x14ac:dyDescent="0.4">
-      <c r="A8" s="15">
+      <c r="A8" s="11">
         <v>7</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="D8" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="E8" s="15" t="s">
+      <c r="E8" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="F8" s="17" t="s">
+      <c r="F8" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="G8" s="18" t="s">
+      <c r="G8" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="H8" s="18" t="s">
+      <c r="H8" s="14" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="56.25" x14ac:dyDescent="0.4">
-      <c r="A9" s="15">
+      <c r="A9" s="11">
         <v>8</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="D9" s="15" t="s">
+      <c r="D9" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="E9" s="15" t="s">
+      <c r="E9" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="F9" s="17" t="s">
+      <c r="F9" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="G9" s="18" t="s">
+      <c r="G9" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="H9" s="18" t="s">
+      <c r="H9" s="14" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="56.25" x14ac:dyDescent="0.4">
-      <c r="A10" s="15">
+      <c r="A10" s="11">
         <v>9</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="C10" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="D10" s="15" t="s">
+      <c r="D10" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="E10" s="15" t="s">
+      <c r="E10" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="F10" s="17" t="s">
+      <c r="F10" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="G10" s="18" t="s">
+      <c r="G10" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="H10" s="18" t="s">
+      <c r="H10" s="14" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="56.25" x14ac:dyDescent="0.4">
-      <c r="A11" s="15">
+      <c r="A11" s="11">
         <v>10</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="C11" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="D11" s="15" t="s">
+      <c r="D11" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="E11" s="15" t="s">
+      <c r="E11" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="F11" s="16" t="s">
+      <c r="F11" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="G11" s="18" t="s">
+      <c r="G11" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="H11" s="18" t="s">
+      <c r="H11" s="14" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="56.25" x14ac:dyDescent="0.4">
-      <c r="A12" s="19">
+      <c r="A12" s="15">
         <v>11</v>
       </c>
-      <c r="B12" s="19" t="s">
+      <c r="B12" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="C12" s="19" t="s">
+      <c r="C12" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="D12" s="19" t="s">
+      <c r="D12" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="E12" s="19" t="s">
+      <c r="E12" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="F12" s="20" t="s">
+      <c r="F12" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="G12" s="21" t="s">
+      <c r="G12" s="17" t="s">
         <v>111</v>
       </c>
-      <c r="H12" s="21"/>
+      <c r="H12" s="17"/>
     </row>
     <row r="13" spans="1:8" ht="112.5" x14ac:dyDescent="0.4">
-      <c r="A13" s="22">
+      <c r="A13" s="18">
         <v>12</v>
       </c>
-      <c r="B13" s="22" t="s">
+      <c r="B13" s="18" t="s">
         <v>113</v>
       </c>
-      <c r="C13" s="22">
+      <c r="C13" s="18">
         <v>148275</v>
       </c>
-      <c r="D13" s="22" t="s">
+      <c r="D13" s="18" t="s">
         <v>114</v>
       </c>
-      <c r="E13" s="22" t="s">
+      <c r="E13" s="18" t="s">
         <v>120</v>
       </c>
-      <c r="F13" s="23" t="s">
+      <c r="F13" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="G13" s="24" t="s">
+      <c r="G13" s="20" t="s">
         <v>153</v>
       </c>
-      <c r="H13" s="24"/>
+      <c r="H13" s="20"/>
     </row>
     <row r="14" spans="1:8" ht="112.5" x14ac:dyDescent="0.4">
-      <c r="A14" s="25">
+      <c r="A14" s="21">
         <v>12</v>
       </c>
-      <c r="B14" s="25" t="s">
+      <c r="B14" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="C14" s="25">
+      <c r="C14" s="21">
         <v>148275</v>
       </c>
-      <c r="D14" s="25" t="s">
+      <c r="D14" s="21" t="s">
         <v>152</v>
       </c>
-      <c r="E14" s="25" t="s">
+      <c r="E14" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="F14" s="26" t="s">
+      <c r="F14" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="G14" s="27" t="s">
+      <c r="G14" s="23" t="s">
         <v>121</v>
       </c>
-      <c r="H14" s="27" t="s">
+      <c r="H14" s="23" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="112.5" x14ac:dyDescent="0.4">
-      <c r="A15" s="28">
+      <c r="A15" s="24">
         <v>13</v>
       </c>
-      <c r="B15" s="28" t="s">
+      <c r="B15" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="C15" s="28">
+      <c r="C15" s="24">
         <v>148275</v>
       </c>
-      <c r="D15" s="28" t="s">
+      <c r="D15" s="24" t="s">
         <v>129</v>
       </c>
-      <c r="E15" s="28" t="s">
+      <c r="E15" s="24" t="s">
         <v>120</v>
       </c>
-      <c r="F15" s="29" t="s">
+      <c r="F15" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="G15" s="30" t="s">
+      <c r="G15" s="26" t="s">
         <v>124</v>
       </c>
-      <c r="H15" s="31" t="s">
+      <c r="H15" s="27" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="112.5" x14ac:dyDescent="0.4">
-      <c r="A16" s="25">
+      <c r="A16" s="21">
         <v>14</v>
       </c>
-      <c r="B16" s="25" t="s">
+      <c r="B16" s="21" t="s">
         <v>128</v>
       </c>
-      <c r="C16" s="25">
+      <c r="C16" s="21">
         <v>148275</v>
       </c>
-      <c r="D16" s="25" t="s">
+      <c r="D16" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="E16" s="25" t="s">
+      <c r="E16" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="F16" s="26" t="s">
+      <c r="F16" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="G16" s="27" t="s">
+      <c r="G16" s="23" t="s">
         <v>131</v>
       </c>
-      <c r="H16" s="32" t="s">
+      <c r="H16" s="28" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="112.5" x14ac:dyDescent="0.4">
-      <c r="A17" s="25">
+      <c r="A17" s="21">
         <v>15</v>
       </c>
-      <c r="B17" s="25" t="s">
+      <c r="B17" s="21" t="s">
         <v>135</v>
       </c>
-      <c r="C17" s="25">
+      <c r="C17" s="21">
         <v>148275</v>
       </c>
-      <c r="D17" s="25" t="s">
+      <c r="D17" s="21" t="s">
         <v>133</v>
       </c>
-      <c r="E17" s="25" t="s">
+      <c r="E17" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="F17" s="26" t="s">
+      <c r="F17" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="G17" s="27" t="s">
+      <c r="G17" s="23" t="s">
         <v>132</v>
       </c>
-      <c r="H17" s="32" t="s">
+      <c r="H17" s="28" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="112.5" x14ac:dyDescent="0.4">
-      <c r="A18" s="33">
+      <c r="A18" s="29">
         <v>16</v>
       </c>
-      <c r="B18" s="33" t="s">
+      <c r="B18" s="29" t="s">
         <v>141</v>
       </c>
-      <c r="C18" s="33">
+      <c r="C18" s="29">
         <v>148275</v>
       </c>
-      <c r="D18" s="33" t="s">
+      <c r="D18" s="29" t="s">
         <v>137</v>
       </c>
-      <c r="E18" s="33" t="s">
+      <c r="E18" s="29" t="s">
         <v>136</v>
       </c>
-      <c r="F18" s="34" t="s">
+      <c r="F18" s="30" t="s">
         <v>108</v>
       </c>
-      <c r="G18" s="35" t="s">
+      <c r="G18" s="31" t="s">
         <v>134</v>
       </c>
-      <c r="H18" s="31" t="s">
+      <c r="H18" s="27" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="112.5" x14ac:dyDescent="0.4">
-      <c r="A19" s="40">
+      <c r="A19" s="36">
         <v>17</v>
       </c>
-      <c r="B19" s="40" t="s">
+      <c r="B19" s="36" t="s">
         <v>147</v>
       </c>
-      <c r="C19" s="40">
+      <c r="C19" s="36">
         <v>148275</v>
       </c>
-      <c r="D19" s="40" t="s">
+      <c r="D19" s="36" t="s">
         <v>145</v>
       </c>
-      <c r="E19" s="40" t="s">
+      <c r="E19" s="36" t="s">
         <v>120</v>
       </c>
-      <c r="F19" s="41" t="s">
+      <c r="F19" s="37" t="s">
         <v>146</v>
       </c>
-      <c r="G19" s="42" t="s">
+      <c r="G19" s="38" t="s">
         <v>143</v>
       </c>
-      <c r="H19" s="42"/>
+      <c r="H19" s="38"/>
     </row>
     <row r="20" spans="1:8" ht="112.5" x14ac:dyDescent="0.4">
-      <c r="A20" s="43">
+      <c r="A20" s="39">
         <v>18</v>
       </c>
-      <c r="B20" s="43" t="s">
+      <c r="B20" s="39" t="s">
         <v>149</v>
       </c>
-      <c r="C20" s="43">
+      <c r="C20" s="39">
         <v>148275</v>
       </c>
-      <c r="D20" s="43" t="s">
+      <c r="D20" s="39" t="s">
         <v>150</v>
       </c>
-      <c r="E20" s="43" t="s">
+      <c r="E20" s="39" t="s">
         <v>148</v>
       </c>
-      <c r="F20" s="44" t="s">
+      <c r="F20" s="40" t="s">
         <v>151</v>
       </c>
-      <c r="G20" s="45" t="s">
+      <c r="G20" s="41" t="s">
         <v>144</v>
       </c>
-      <c r="H20" s="45" t="s">
+      <c r="H20" s="41" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="112.5" x14ac:dyDescent="0.4">
-      <c r="A21" s="22">
+      <c r="A21" s="18">
         <v>19</v>
       </c>
-      <c r="B21" s="22" t="s">
+      <c r="B21" s="18" t="s">
         <v>167</v>
       </c>
-      <c r="C21" s="22">
+      <c r="C21" s="18">
         <v>148275</v>
       </c>
-      <c r="D21" s="22" t="s">
+      <c r="D21" s="18" t="s">
         <v>166</v>
       </c>
-      <c r="E21" s="22" t="s">
+      <c r="E21" s="18" t="s">
         <v>120</v>
       </c>
-      <c r="F21" s="36" t="s">
+      <c r="F21" s="32" t="s">
         <v>162</v>
       </c>
-      <c r="G21" s="24" t="s">
+      <c r="G21" s="20" t="s">
         <v>154</v>
       </c>
-      <c r="H21" s="24"/>
+      <c r="H21" s="20"/>
     </row>
     <row r="22" spans="1:8" ht="112.5" x14ac:dyDescent="0.4">
-      <c r="A22" s="22">
+      <c r="A22" s="18">
         <v>20</v>
       </c>
-      <c r="B22" s="22" t="s">
+      <c r="B22" s="18" t="s">
         <v>168</v>
       </c>
-      <c r="C22" s="22">
+      <c r="C22" s="18">
         <v>148275</v>
       </c>
-      <c r="D22" s="22" t="s">
+      <c r="D22" s="18" t="s">
         <v>166</v>
       </c>
-      <c r="E22" s="22" t="s">
+      <c r="E22" s="18" t="s">
         <v>120</v>
       </c>
-      <c r="F22" s="36" t="s">
+      <c r="F22" s="32" t="s">
         <v>169</v>
       </c>
-      <c r="G22" s="24" t="s">
+      <c r="G22" s="20" t="s">
         <v>165</v>
       </c>
-      <c r="H22" s="24"/>
+      <c r="H22" s="20"/>
     </row>
     <row r="23" spans="1:8" ht="93.75" x14ac:dyDescent="0.4">
-      <c r="A23" s="22">
+      <c r="A23" s="18">
         <v>21</v>
       </c>
-      <c r="B23" s="22" t="s">
+      <c r="B23" s="18" t="s">
         <v>185</v>
       </c>
-      <c r="C23" s="22">
+      <c r="C23" s="18">
         <v>148275</v>
       </c>
-      <c r="D23" s="22" t="s">
+      <c r="D23" s="18" t="s">
         <v>174</v>
       </c>
-      <c r="E23" s="22" t="s">
+      <c r="E23" s="18" t="s">
         <v>178</v>
       </c>
-      <c r="F23" s="36" t="s">
+      <c r="F23" s="32" t="s">
         <v>169</v>
       </c>
-      <c r="G23" s="24" t="s">
+      <c r="G23" s="20" t="s">
         <v>172</v>
       </c>
-      <c r="H23" s="24" t="s">
+      <c r="H23" s="20" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="56.25" x14ac:dyDescent="0.4">
-      <c r="A24" s="22">
+      <c r="A24" s="18">
         <v>22</v>
       </c>
-      <c r="B24" s="22" t="s">
+      <c r="B24" s="18" t="s">
         <v>184</v>
       </c>
-      <c r="C24" s="22">
+      <c r="C24" s="18">
         <v>148275</v>
       </c>
-      <c r="D24" s="22" t="s">
+      <c r="D24" s="18" t="s">
         <v>173</v>
       </c>
-      <c r="E24" s="22" t="s">
+      <c r="E24" s="18" t="s">
         <v>176</v>
       </c>
-      <c r="F24" s="23" t="s">
+      <c r="F24" s="19" t="s">
         <v>169</v>
       </c>
-      <c r="G24" s="24" t="s">
+      <c r="G24" s="20" t="s">
         <v>170</v>
       </c>
-      <c r="H24" s="24" t="s">
+      <c r="H24" s="20" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="56.25" x14ac:dyDescent="0.4">
-      <c r="A25" s="22">
+      <c r="A25" s="18">
         <v>23</v>
       </c>
-      <c r="B25" s="22" t="s">
+      <c r="B25" s="18" t="s">
         <v>181</v>
       </c>
-      <c r="C25" s="22">
+      <c r="C25" s="18">
         <v>148275</v>
       </c>
-      <c r="D25" s="22" t="s">
+      <c r="D25" s="18" t="s">
         <v>180</v>
       </c>
-      <c r="E25" s="22" t="s">
+      <c r="E25" s="18" t="s">
         <v>177</v>
       </c>
-      <c r="F25" s="23" t="s">
+      <c r="F25" s="19" t="s">
         <v>169</v>
       </c>
-      <c r="G25" s="10" t="s">
+      <c r="G25" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="H25" s="24"/>
+      <c r="H25" s="20"/>
     </row>
     <row r="26" spans="1:8" ht="56.25" x14ac:dyDescent="0.4">
-      <c r="A26" s="22">
+      <c r="A26" s="18">
         <v>24</v>
       </c>
-      <c r="B26" s="22" t="s">
+      <c r="B26" s="18" t="s">
         <v>182</v>
       </c>
-      <c r="C26" s="22">
+      <c r="C26" s="18">
         <v>148275</v>
       </c>
-      <c r="D26" s="22" t="s">
+      <c r="D26" s="18" t="s">
         <v>186</v>
       </c>
-      <c r="E26" s="22" t="s">
+      <c r="E26" s="18" t="s">
         <v>177</v>
       </c>
-      <c r="F26" s="36" t="s">
+      <c r="F26" s="32" t="s">
         <v>169</v>
       </c>
-      <c r="G26" s="24" t="s">
+      <c r="G26" s="20" t="s">
         <v>175</v>
       </c>
-      <c r="H26" s="24"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A27" s="22"/>
-      <c r="B27" s="22"/>
-      <c r="C27" s="22"/>
-      <c r="D27" s="22"/>
-      <c r="E27" s="22"/>
-      <c r="F27" s="22"/>
-      <c r="G27" s="24"/>
-      <c r="H27" s="24"/>
+      <c r="H26" s="20"/>
+    </row>
+    <row r="27" spans="1:8" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A27" s="18">
+        <v>25</v>
+      </c>
+      <c r="B27" s="47" t="s">
+        <v>190</v>
+      </c>
+      <c r="C27" s="7">
+        <v>87141731</v>
+      </c>
+      <c r="D27" s="47" t="s">
+        <v>189</v>
+      </c>
+      <c r="E27" s="47" t="s">
+        <v>188</v>
+      </c>
+      <c r="F27" s="47" t="s">
+        <v>191</v>
+      </c>
+      <c r="G27" s="46" t="s">
+        <v>187</v>
+      </c>
+      <c r="H27" s="20"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A28" s="22"/>
-      <c r="B28" s="22"/>
-      <c r="C28" s="22"/>
-      <c r="D28" s="22"/>
-      <c r="E28" s="22"/>
-      <c r="F28" s="22"/>
-      <c r="G28" s="24"/>
-      <c r="H28" s="24"/>
+      <c r="A28" s="18"/>
+      <c r="B28" s="18"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="20"/>
+      <c r="H28" s="20"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A29" s="22"/>
-      <c r="B29" s="22"/>
-      <c r="C29" s="22"/>
-      <c r="D29" s="22"/>
-      <c r="E29" s="22"/>
-      <c r="F29" s="22"/>
-      <c r="G29" s="24"/>
-      <c r="H29" s="24"/>
+      <c r="A29" s="18"/>
+      <c r="B29" s="18"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="20"/>
+      <c r="H29" s="20"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A30" s="22"/>
-      <c r="B30" s="22"/>
-      <c r="C30" s="22"/>
-      <c r="D30" s="22"/>
-      <c r="E30" s="22"/>
-      <c r="F30" s="22"/>
-      <c r="G30" s="24"/>
-      <c r="H30" s="24"/>
+      <c r="A30" s="18"/>
+      <c r="B30" s="18"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="20"/>
+      <c r="H30" s="20"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A31" s="22"/>
-      <c r="B31" s="22"/>
-      <c r="C31" s="22"/>
-      <c r="D31" s="22"/>
-      <c r="E31" s="22"/>
-      <c r="F31" s="22"/>
-      <c r="G31" s="24"/>
-      <c r="H31" s="24"/>
+      <c r="A31" s="18"/>
+      <c r="B31" s="18"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="20"/>
+      <c r="H31" s="20"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A32" s="22"/>
-      <c r="B32" s="22"/>
-      <c r="C32" s="22"/>
-      <c r="D32" s="22"/>
-      <c r="E32" s="22"/>
-      <c r="F32" s="22"/>
-      <c r="G32" s="24"/>
-      <c r="H32" s="24"/>
+      <c r="A32" s="18"/>
+      <c r="B32" s="18"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="18"/>
+      <c r="G32" s="20"/>
+      <c r="H32" s="20"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A33" s="22"/>
-      <c r="B33" s="22"/>
-      <c r="C33" s="22"/>
-      <c r="D33" s="22"/>
-      <c r="E33" s="22"/>
-      <c r="F33" s="22"/>
-      <c r="G33" s="24"/>
-      <c r="H33" s="24"/>
+      <c r="A33" s="18"/>
+      <c r="B33" s="18"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="18"/>
+      <c r="G33" s="20"/>
+      <c r="H33" s="20"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4"/>
@@ -2349,7 +2439,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="42" t="s">
         <v>34</v>
       </c>
       <c r="B2" s="1">
@@ -2366,7 +2456,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A3" s="4"/>
+      <c r="A3" s="42"/>
       <c r="B3" s="1">
         <v>1.2</v>
       </c>
@@ -2381,7 +2471,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A4" s="4"/>
+      <c r="A4" s="42"/>
       <c r="B4" s="1">
         <v>1.3</v>
       </c>
@@ -2396,7 +2486,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A5" s="4"/>
+      <c r="A5" s="42"/>
       <c r="B5" s="1">
         <v>1.4</v>
       </c>
@@ -2411,7 +2501,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A6" s="4"/>
+      <c r="A6" s="42"/>
       <c r="B6" s="1">
         <v>1.5</v>
       </c>
@@ -2426,7 +2516,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A7" s="4"/>
+      <c r="A7" s="42"/>
       <c r="B7" s="1">
         <v>1.6</v>
       </c>
@@ -2441,7 +2531,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A8" s="4"/>
+      <c r="A8" s="42"/>
       <c r="B8" s="1">
         <v>1.7</v>
       </c>
@@ -2456,7 +2546,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A9" s="4"/>
+      <c r="A9" s="42"/>
       <c r="B9" s="1">
         <v>1.8</v>
       </c>
@@ -2471,7 +2561,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A10" s="4"/>
+      <c r="A10" s="42"/>
       <c r="B10" s="1">
         <v>1.9</v>
       </c>
@@ -2486,7 +2576,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="42" t="s">
         <v>35</v>
       </c>
       <c r="B11" s="1">
@@ -2503,7 +2593,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A12" s="4"/>
+      <c r="A12" s="42"/>
       <c r="B12" s="1">
         <v>2.2000000000000002</v>
       </c>
@@ -2518,7 +2608,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A13" s="4"/>
+      <c r="A13" s="42"/>
       <c r="B13" s="1">
         <v>2.2999999999999998</v>
       </c>
@@ -2533,7 +2623,7 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="42" t="s">
         <v>39</v>
       </c>
       <c r="B14" s="1">
@@ -2550,7 +2640,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A15" s="4"/>
+      <c r="A15" s="42"/>
       <c r="B15" s="1">
         <v>3.2</v>
       </c>
@@ -2565,7 +2655,7 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A16" s="4"/>
+      <c r="A16" s="42"/>
       <c r="B16" s="1">
         <v>3.3</v>
       </c>
@@ -2580,7 +2670,7 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="42" t="s">
         <v>57</v>
       </c>
       <c r="B17" s="1">
@@ -2597,7 +2687,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A18" s="4"/>
+      <c r="A18" s="42"/>
       <c r="B18" s="1">
         <v>4.2</v>
       </c>
@@ -2612,7 +2702,7 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A19" s="4"/>
+      <c r="A19" s="42"/>
       <c r="B19" s="1">
         <v>4.3</v>
       </c>
@@ -2627,7 +2717,7 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="43" t="s">
         <v>56</v>
       </c>
       <c r="B20" s="1">
@@ -2644,7 +2734,7 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A21" s="6"/>
+      <c r="A21" s="44"/>
       <c r="B21" s="1">
         <v>5.2</v>
       </c>
@@ -2659,7 +2749,7 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A22" s="6"/>
+      <c r="A22" s="44"/>
       <c r="B22" s="1">
         <v>5.3</v>
       </c>
@@ -2674,7 +2764,7 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A23" s="6"/>
+      <c r="A23" s="44"/>
       <c r="B23" s="1">
         <v>5.4</v>
       </c>
@@ -2689,7 +2779,7 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A24" s="6"/>
+      <c r="A24" s="44"/>
       <c r="B24" s="1">
         <v>5.5</v>
       </c>
@@ -2704,7 +2794,7 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A25" s="6"/>
+      <c r="A25" s="44"/>
       <c r="B25" s="1">
         <v>5.6</v>
       </c>
@@ -2719,7 +2809,7 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A26" s="6"/>
+      <c r="A26" s="44"/>
       <c r="B26" s="1">
         <v>5.7</v>
       </c>
@@ -2734,7 +2824,7 @@
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A27" s="6"/>
+      <c r="A27" s="44"/>
       <c r="B27" s="1">
         <v>5.8</v>
       </c>
@@ -2749,7 +2839,7 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A28" s="7"/>
+      <c r="A28" s="45"/>
       <c r="B28" s="1">
         <v>5.9</v>
       </c>
@@ -2764,19 +2854,19 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A29" s="38" t="s">
+      <c r="A29" s="34" t="s">
         <v>155</v>
       </c>
       <c r="B29" s="1">
         <v>6.1</v>
       </c>
-      <c r="C29" s="39" t="s">
+      <c r="C29" s="35" t="s">
         <v>156</v>
       </c>
-      <c r="D29" s="39" t="s">
+      <c r="D29" s="35" t="s">
         <v>160</v>
       </c>
-      <c r="E29" s="39" t="s">
+      <c r="E29" s="35" t="s">
         <v>158</v>
       </c>
     </row>
@@ -2785,13 +2875,13 @@
       <c r="B30" s="1">
         <v>6.2</v>
       </c>
-      <c r="C30" s="39" t="s">
+      <c r="C30" s="35" t="s">
         <v>157</v>
       </c>
-      <c r="D30" s="39" t="s">
+      <c r="D30" s="35" t="s">
         <v>159</v>
       </c>
-      <c r="E30" s="39" t="s">
+      <c r="E30" s="35" t="s">
         <v>161</v>
       </c>
     </row>

--- a/Experimental_Log/experiment.xlsx
+++ b/Experimental_Log/experiment.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Experiment" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="197">
   <si>
     <t>Test ID</t>
     <phoneticPr fontId="4"/>
@@ -891,22 +891,6 @@
   </si>
   <si>
     <r>
-      <t>S</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>GD with custom result convert</t>
-    </r>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <r>
       <t>5</t>
     </r>
     <r>
@@ -918,6 +902,22 @@
         <scheme val="minor"/>
       </rPr>
       <t>.*</t>
+    </r>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00000:87141731</t>
     </r>
     <phoneticPr fontId="4"/>
   </si>
@@ -939,6 +939,37 @@
   </si>
   <si>
     <r>
+      <t>S</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>GD with custom result convert</t>
+    </r>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>prediction result is too high (around 1e12+)
+SGD is really sensitive to unscale data</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>Accuracy score: 0.687573764964
+Precision score: 0.233376275889
+Recall score: 0.234079915181</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>5.*</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <r>
       <t>1</t>
     </r>
     <r>
@@ -950,6 +981,22 @@
         <scheme val="minor"/>
       </rPr>
       <t>00000:87141731</t>
+    </r>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <r>
+      <t>Scaled r</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>aw feature with SGD and verify by custom convert</t>
     </r>
     <phoneticPr fontId="4"/>
   </si>
@@ -1201,13 +1248,29 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1292,50 +1355,28 @@
     <xf numFmtId="0" fontId="10" fillId="5" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" xfId="6" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="4" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="6" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="4" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1626,776 +1667,792 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView tabSelected="1" topLeftCell="C25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="7.625" style="33" customWidth="1"/>
-    <col min="2" max="2" width="58" style="33" customWidth="1"/>
-    <col min="3" max="3" width="13.75" style="33" customWidth="1"/>
-    <col min="4" max="4" width="27.5" style="33" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.125" style="33" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.375" style="33" customWidth="1"/>
-    <col min="7" max="7" width="53.25" style="6" customWidth="1"/>
-    <col min="8" max="8" width="25" style="6" customWidth="1"/>
-    <col min="9" max="9" width="9" style="6"/>
-    <col min="10" max="10" width="16.5" style="6" customWidth="1"/>
-    <col min="11" max="11" width="10.5" style="6" customWidth="1"/>
-    <col min="12" max="12" width="34" style="6" customWidth="1"/>
-    <col min="13" max="13" width="68.125" style="6" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9" style="6"/>
-    <col min="16" max="16" width="11.75" style="6" customWidth="1"/>
-    <col min="17" max="17" width="18.625" style="6" customWidth="1"/>
-    <col min="18" max="18" width="14.75" style="6" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9" style="6"/>
+    <col min="1" max="1" width="7.625" style="45" customWidth="1"/>
+    <col min="2" max="2" width="58" style="45" customWidth="1"/>
+    <col min="3" max="3" width="13.75" style="45" customWidth="1"/>
+    <col min="4" max="4" width="27.5" style="45" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.125" style="45" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.375" style="45" customWidth="1"/>
+    <col min="7" max="7" width="53.25" style="12" customWidth="1"/>
+    <col min="8" max="8" width="25" style="12" customWidth="1"/>
+    <col min="9" max="9" width="9" style="12"/>
+    <col min="10" max="10" width="16.5" style="12" customWidth="1"/>
+    <col min="11" max="11" width="10.5" style="12" customWidth="1"/>
+    <col min="12" max="12" width="34" style="12" customWidth="1"/>
+    <col min="13" max="13" width="68.125" style="12" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.5" style="12" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9" style="12"/>
+    <col min="16" max="16" width="11.75" style="12" customWidth="1"/>
+    <col min="17" max="17" width="18.625" style="12" customWidth="1"/>
+    <col min="18" max="18" width="14.75" style="12" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="11" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A2" s="7">
+      <c r="A2" s="13">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2" s="13">
         <v>87141731</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="H2" s="10"/>
+      <c r="H2" s="16"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A3" s="11">
+      <c r="A3" s="17">
         <v>2</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C3" s="17">
         <v>148275</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="G3" s="14" t="s">
+      <c r="G3" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="H3" s="14" t="s">
+      <c r="H3" s="20" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A4" s="11">
+      <c r="A4" s="17">
         <v>3</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="17">
         <v>148275</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="G4" s="14" t="s">
+      <c r="G4" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="H4" s="14" t="s">
+      <c r="H4" s="20" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A5" s="11">
+      <c r="A5" s="17">
         <v>4</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="17">
         <v>148275</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="13" t="s">
+      <c r="F5" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="G5" s="14" t="s">
+      <c r="G5" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="H5" s="14" t="s">
+      <c r="H5" s="20" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A6" s="11">
+      <c r="A6" s="17">
         <v>5</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="17">
         <v>148275</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="13" t="s">
+      <c r="F6" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="G6" s="14" t="s">
+      <c r="G6" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="H6" s="14" t="s">
+      <c r="H6" s="20" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A7" s="11">
+      <c r="A7" s="17">
         <v>6</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7" s="17">
         <v>148275</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="13" t="s">
+      <c r="F7" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="G7" s="14" t="s">
+      <c r="G7" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="H7" s="14" t="s">
+      <c r="H7" s="20" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="56.25" x14ac:dyDescent="0.4">
-      <c r="A8" s="11">
+      <c r="A8" s="17">
         <v>7</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="E8" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="F8" s="13" t="s">
+      <c r="F8" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="G8" s="14" t="s">
+      <c r="G8" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="H8" s="14" t="s">
+      <c r="H8" s="20" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="56.25" x14ac:dyDescent="0.4">
-      <c r="A9" s="11">
+      <c r="A9" s="17">
         <v>8</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="E9" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="F9" s="13" t="s">
+      <c r="F9" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="G9" s="14" t="s">
+      <c r="G9" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="H9" s="14" t="s">
+      <c r="H9" s="20" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="56.25" x14ac:dyDescent="0.4">
-      <c r="A10" s="11">
+      <c r="A10" s="17">
         <v>9</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="E10" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="F10" s="13" t="s">
+      <c r="F10" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="G10" s="14" t="s">
+      <c r="G10" s="20" t="s">
         <v>101</v>
       </c>
-      <c r="H10" s="14" t="s">
+      <c r="H10" s="20" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="56.25" x14ac:dyDescent="0.4">
-      <c r="A11" s="11">
+      <c r="A11" s="17">
         <v>10</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="17" t="s">
         <v>106</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="E11" s="11" t="s">
+      <c r="E11" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="F11" s="12" t="s">
+      <c r="F11" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="G11" s="14" t="s">
+      <c r="G11" s="20" t="s">
         <v>104</v>
       </c>
-      <c r="H11" s="14" t="s">
+      <c r="H11" s="20" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="56.25" x14ac:dyDescent="0.4">
-      <c r="A12" s="15">
+      <c r="A12" s="21">
         <v>11</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="21" t="s">
         <v>112</v>
       </c>
-      <c r="C12" s="15" t="s">
+      <c r="C12" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="D12" s="15" t="s">
+      <c r="D12" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="E12" s="15" t="s">
+      <c r="E12" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="F12" s="16" t="s">
+      <c r="F12" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="G12" s="17" t="s">
+      <c r="G12" s="23" t="s">
         <v>111</v>
       </c>
-      <c r="H12" s="17"/>
+      <c r="H12" s="23"/>
     </row>
     <row r="13" spans="1:8" ht="112.5" x14ac:dyDescent="0.4">
-      <c r="A13" s="18">
+      <c r="A13" s="24">
         <v>12</v>
       </c>
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="C13" s="18">
+      <c r="C13" s="24">
         <v>148275</v>
       </c>
-      <c r="D13" s="18" t="s">
+      <c r="D13" s="24" t="s">
         <v>114</v>
       </c>
-      <c r="E13" s="18" t="s">
+      <c r="E13" s="24" t="s">
         <v>120</v>
       </c>
-      <c r="F13" s="19" t="s">
+      <c r="F13" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="G13" s="20" t="s">
+      <c r="G13" s="26" t="s">
         <v>153</v>
       </c>
-      <c r="H13" s="20"/>
+      <c r="H13" s="26"/>
     </row>
     <row r="14" spans="1:8" ht="112.5" x14ac:dyDescent="0.4">
-      <c r="A14" s="21">
+      <c r="A14" s="27">
         <v>12</v>
       </c>
-      <c r="B14" s="21" t="s">
+      <c r="B14" s="27" t="s">
         <v>123</v>
       </c>
-      <c r="C14" s="21">
+      <c r="C14" s="27">
         <v>148275</v>
       </c>
-      <c r="D14" s="21" t="s">
+      <c r="D14" s="27" t="s">
         <v>152</v>
       </c>
-      <c r="E14" s="21" t="s">
+      <c r="E14" s="27" t="s">
         <v>120</v>
       </c>
-      <c r="F14" s="22" t="s">
+      <c r="F14" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="G14" s="23" t="s">
+      <c r="G14" s="29" t="s">
         <v>121</v>
       </c>
-      <c r="H14" s="23" t="s">
+      <c r="H14" s="29" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="112.5" x14ac:dyDescent="0.4">
-      <c r="A15" s="24">
+      <c r="A15" s="30">
         <v>13</v>
       </c>
-      <c r="B15" s="24" t="s">
+      <c r="B15" s="30" t="s">
         <v>122</v>
       </c>
-      <c r="C15" s="24">
+      <c r="C15" s="30">
         <v>148275</v>
       </c>
-      <c r="D15" s="24" t="s">
+      <c r="D15" s="30" t="s">
         <v>129</v>
       </c>
-      <c r="E15" s="24" t="s">
+      <c r="E15" s="30" t="s">
         <v>120</v>
       </c>
-      <c r="F15" s="25" t="s">
+      <c r="F15" s="31" t="s">
         <v>108</v>
       </c>
-      <c r="G15" s="26" t="s">
+      <c r="G15" s="32" t="s">
         <v>124</v>
       </c>
-      <c r="H15" s="27" t="s">
+      <c r="H15" s="33" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="112.5" x14ac:dyDescent="0.4">
-      <c r="A16" s="21">
+      <c r="A16" s="27">
         <v>14</v>
       </c>
-      <c r="B16" s="21" t="s">
+      <c r="B16" s="27" t="s">
         <v>128</v>
       </c>
-      <c r="C16" s="21">
+      <c r="C16" s="27">
         <v>148275</v>
       </c>
-      <c r="D16" s="21" t="s">
+      <c r="D16" s="27" t="s">
         <v>130</v>
       </c>
-      <c r="E16" s="21" t="s">
+      <c r="E16" s="27" t="s">
         <v>120</v>
       </c>
-      <c r="F16" s="22" t="s">
+      <c r="F16" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="G16" s="23" t="s">
+      <c r="G16" s="29" t="s">
         <v>131</v>
       </c>
-      <c r="H16" s="28" t="s">
+      <c r="H16" s="34" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="112.5" x14ac:dyDescent="0.4">
-      <c r="A17" s="21">
+      <c r="A17" s="27">
         <v>15</v>
       </c>
-      <c r="B17" s="21" t="s">
+      <c r="B17" s="27" t="s">
         <v>135</v>
       </c>
-      <c r="C17" s="21">
+      <c r="C17" s="27">
         <v>148275</v>
       </c>
-      <c r="D17" s="21" t="s">
+      <c r="D17" s="27" t="s">
         <v>133</v>
       </c>
-      <c r="E17" s="21" t="s">
+      <c r="E17" s="27" t="s">
         <v>120</v>
       </c>
-      <c r="F17" s="22" t="s">
+      <c r="F17" s="28" t="s">
         <v>108</v>
       </c>
-      <c r="G17" s="23" t="s">
+      <c r="G17" s="29" t="s">
         <v>132</v>
       </c>
-      <c r="H17" s="28" t="s">
+      <c r="H17" s="34" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="112.5" x14ac:dyDescent="0.4">
-      <c r="A18" s="29">
+      <c r="A18" s="35">
         <v>16</v>
       </c>
-      <c r="B18" s="29" t="s">
+      <c r="B18" s="35" t="s">
         <v>141</v>
       </c>
-      <c r="C18" s="29">
+      <c r="C18" s="35">
         <v>148275</v>
       </c>
-      <c r="D18" s="29" t="s">
+      <c r="D18" s="35" t="s">
         <v>137</v>
       </c>
-      <c r="E18" s="29" t="s">
+      <c r="E18" s="35" t="s">
         <v>136</v>
       </c>
-      <c r="F18" s="30" t="s">
+      <c r="F18" s="36" t="s">
         <v>108</v>
       </c>
-      <c r="G18" s="31" t="s">
+      <c r="G18" s="37" t="s">
         <v>134</v>
       </c>
-      <c r="H18" s="27" t="s">
+      <c r="H18" s="33" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="112.5" x14ac:dyDescent="0.4">
-      <c r="A19" s="36">
+      <c r="A19" s="38">
         <v>17</v>
       </c>
-      <c r="B19" s="36" t="s">
+      <c r="B19" s="38" t="s">
         <v>147</v>
       </c>
-      <c r="C19" s="36">
+      <c r="C19" s="38">
         <v>148275</v>
       </c>
-      <c r="D19" s="36" t="s">
+      <c r="D19" s="38" t="s">
         <v>145</v>
       </c>
-      <c r="E19" s="36" t="s">
+      <c r="E19" s="38" t="s">
         <v>120</v>
       </c>
-      <c r="F19" s="37" t="s">
+      <c r="F19" s="39" t="s">
         <v>146</v>
       </c>
-      <c r="G19" s="38" t="s">
+      <c r="G19" s="40" t="s">
         <v>143</v>
       </c>
-      <c r="H19" s="38"/>
+      <c r="H19" s="40"/>
     </row>
     <row r="20" spans="1:8" ht="112.5" x14ac:dyDescent="0.4">
-      <c r="A20" s="39">
+      <c r="A20" s="41">
         <v>18</v>
       </c>
-      <c r="B20" s="39" t="s">
+      <c r="B20" s="41" t="s">
         <v>149</v>
       </c>
-      <c r="C20" s="39">
+      <c r="C20" s="41">
         <v>148275</v>
       </c>
-      <c r="D20" s="39" t="s">
+      <c r="D20" s="41" t="s">
         <v>150</v>
       </c>
-      <c r="E20" s="39" t="s">
+      <c r="E20" s="41" t="s">
         <v>148</v>
       </c>
-      <c r="F20" s="40" t="s">
+      <c r="F20" s="42" t="s">
         <v>151</v>
       </c>
-      <c r="G20" s="41" t="s">
+      <c r="G20" s="43" t="s">
         <v>144</v>
       </c>
-      <c r="H20" s="41" t="s">
+      <c r="H20" s="43" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="112.5" x14ac:dyDescent="0.4">
-      <c r="A21" s="18">
+      <c r="A21" s="24">
         <v>19</v>
       </c>
-      <c r="B21" s="18" t="s">
+      <c r="B21" s="24" t="s">
         <v>167</v>
       </c>
-      <c r="C21" s="18">
+      <c r="C21" s="24">
         <v>148275</v>
       </c>
-      <c r="D21" s="18" t="s">
+      <c r="D21" s="24" t="s">
         <v>166</v>
       </c>
-      <c r="E21" s="18" t="s">
+      <c r="E21" s="24" t="s">
         <v>120</v>
       </c>
-      <c r="F21" s="32" t="s">
+      <c r="F21" s="44" t="s">
         <v>162</v>
       </c>
-      <c r="G21" s="20" t="s">
+      <c r="G21" s="26" t="s">
         <v>154</v>
       </c>
-      <c r="H21" s="20"/>
+      <c r="H21" s="26"/>
     </row>
     <row r="22" spans="1:8" ht="112.5" x14ac:dyDescent="0.4">
-      <c r="A22" s="18">
+      <c r="A22" s="24">
         <v>20</v>
       </c>
-      <c r="B22" s="18" t="s">
+      <c r="B22" s="24" t="s">
         <v>168</v>
       </c>
-      <c r="C22" s="18">
+      <c r="C22" s="24">
         <v>148275</v>
       </c>
-      <c r="D22" s="18" t="s">
+      <c r="D22" s="24" t="s">
         <v>166</v>
       </c>
-      <c r="E22" s="18" t="s">
+      <c r="E22" s="24" t="s">
         <v>120</v>
       </c>
-      <c r="F22" s="32" t="s">
+      <c r="F22" s="44" t="s">
         <v>169</v>
       </c>
-      <c r="G22" s="20" t="s">
+      <c r="G22" s="26" t="s">
         <v>165</v>
       </c>
-      <c r="H22" s="20"/>
+      <c r="H22" s="26"/>
     </row>
     <row r="23" spans="1:8" ht="93.75" x14ac:dyDescent="0.4">
-      <c r="A23" s="18">
+      <c r="A23" s="24">
         <v>21</v>
       </c>
-      <c r="B23" s="18" t="s">
+      <c r="B23" s="24" t="s">
         <v>185</v>
       </c>
-      <c r="C23" s="18">
+      <c r="C23" s="24">
         <v>148275</v>
       </c>
-      <c r="D23" s="18" t="s">
+      <c r="D23" s="24" t="s">
         <v>174</v>
       </c>
-      <c r="E23" s="18" t="s">
+      <c r="E23" s="24" t="s">
         <v>178</v>
       </c>
-      <c r="F23" s="32" t="s">
+      <c r="F23" s="44" t="s">
         <v>169</v>
       </c>
-      <c r="G23" s="20" t="s">
+      <c r="G23" s="26" t="s">
         <v>172</v>
       </c>
-      <c r="H23" s="20" t="s">
+      <c r="H23" s="26" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="56.25" x14ac:dyDescent="0.4">
-      <c r="A24" s="18">
+      <c r="A24" s="24">
         <v>22</v>
       </c>
-      <c r="B24" s="18" t="s">
+      <c r="B24" s="24" t="s">
         <v>184</v>
       </c>
-      <c r="C24" s="18">
+      <c r="C24" s="24">
         <v>148275</v>
       </c>
-      <c r="D24" s="18" t="s">
+      <c r="D24" s="24" t="s">
         <v>173</v>
       </c>
-      <c r="E24" s="18" t="s">
+      <c r="E24" s="24" t="s">
         <v>176</v>
       </c>
-      <c r="F24" s="19" t="s">
+      <c r="F24" s="25" t="s">
         <v>169</v>
       </c>
-      <c r="G24" s="20" t="s">
+      <c r="G24" s="26" t="s">
         <v>170</v>
       </c>
-      <c r="H24" s="20" t="s">
+      <c r="H24" s="26" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="56.25" x14ac:dyDescent="0.4">
-      <c r="A25" s="18">
+      <c r="A25" s="24">
         <v>23</v>
       </c>
-      <c r="B25" s="18" t="s">
+      <c r="B25" s="24" t="s">
         <v>181</v>
       </c>
-      <c r="C25" s="18">
+      <c r="C25" s="24">
         <v>148275</v>
       </c>
-      <c r="D25" s="18" t="s">
+      <c r="D25" s="24" t="s">
         <v>180</v>
       </c>
-      <c r="E25" s="18" t="s">
+      <c r="E25" s="24" t="s">
         <v>177</v>
       </c>
-      <c r="F25" s="19" t="s">
+      <c r="F25" s="25" t="s">
         <v>169</v>
       </c>
-      <c r="G25" s="6" t="s">
+      <c r="G25" s="12" t="s">
         <v>179</v>
       </c>
-      <c r="H25" s="20"/>
+      <c r="H25" s="26"/>
     </row>
     <row r="26" spans="1:8" ht="56.25" x14ac:dyDescent="0.4">
-      <c r="A26" s="18">
+      <c r="A26" s="24">
         <v>24</v>
       </c>
-      <c r="B26" s="18" t="s">
+      <c r="B26" s="24" t="s">
         <v>182</v>
       </c>
-      <c r="C26" s="18">
+      <c r="C26" s="24">
         <v>148275</v>
       </c>
-      <c r="D26" s="18" t="s">
+      <c r="D26" s="24" t="s">
         <v>186</v>
       </c>
-      <c r="E26" s="18" t="s">
+      <c r="E26" s="24" t="s">
         <v>177</v>
       </c>
-      <c r="F26" s="32" t="s">
+      <c r="F26" s="44" t="s">
         <v>169</v>
       </c>
-      <c r="G26" s="20" t="s">
+      <c r="G26" s="26" t="s">
         <v>175</v>
       </c>
-      <c r="H26" s="20"/>
-    </row>
-    <row r="27" spans="1:8" ht="56.25" x14ac:dyDescent="0.4">
-      <c r="A27" s="18">
+      <c r="H26" s="26"/>
+    </row>
+    <row r="27" spans="1:8" ht="75" x14ac:dyDescent="0.4">
+      <c r="A27" s="24">
         <v>25</v>
       </c>
-      <c r="B27" s="47" t="s">
+      <c r="B27" s="24" t="s">
         <v>190</v>
       </c>
-      <c r="C27" s="7">
+      <c r="C27" s="24">
         <v>87141731</v>
       </c>
-      <c r="D27" s="47" t="s">
+      <c r="D27" s="24" t="s">
+        <v>188</v>
+      </c>
+      <c r="E27" s="24" t="s">
+        <v>191</v>
+      </c>
+      <c r="F27" s="24" t="s">
         <v>189</v>
       </c>
-      <c r="E27" s="47" t="s">
-        <v>188</v>
-      </c>
-      <c r="F27" s="47" t="s">
+      <c r="G27" s="26" t="s">
+        <v>187</v>
+      </c>
+      <c r="H27" s="26" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A28" s="24">
+        <v>26</v>
+      </c>
+      <c r="B28" s="24" t="s">
+        <v>196</v>
+      </c>
+      <c r="C28" s="24">
+        <v>87141731</v>
+      </c>
+      <c r="D28" s="24" t="s">
+        <v>194</v>
+      </c>
+      <c r="E28" s="24" t="s">
         <v>191</v>
       </c>
-      <c r="G27" s="46" t="s">
-        <v>187</v>
-      </c>
-      <c r="H27" s="20"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A28" s="18"/>
-      <c r="B28" s="18"/>
-      <c r="C28" s="18"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="18"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="20"/>
+      <c r="F28" s="24" t="s">
+        <v>195</v>
+      </c>
+      <c r="G28" s="26" t="s">
+        <v>193</v>
+      </c>
+      <c r="H28" s="26"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A29" s="18"/>
-      <c r="B29" s="18"/>
-      <c r="C29" s="18"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="18"/>
-      <c r="G29" s="20"/>
-      <c r="H29" s="20"/>
+      <c r="A29" s="24"/>
+      <c r="B29" s="24"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="24"/>
+      <c r="G29" s="26"/>
+      <c r="H29" s="26"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A30" s="18"/>
-      <c r="B30" s="18"/>
-      <c r="C30" s="18"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="18"/>
-      <c r="G30" s="20"/>
-      <c r="H30" s="20"/>
+      <c r="A30" s="24"/>
+      <c r="B30" s="24"/>
+      <c r="C30" s="24"/>
+      <c r="D30" s="24"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="24"/>
+      <c r="G30" s="26"/>
+      <c r="H30" s="26"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A31" s="18"/>
-      <c r="B31" s="18"/>
-      <c r="C31" s="18"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="18"/>
-      <c r="F31" s="18"/>
-      <c r="G31" s="20"/>
-      <c r="H31" s="20"/>
+      <c r="A31" s="24"/>
+      <c r="B31" s="24"/>
+      <c r="C31" s="24"/>
+      <c r="D31" s="24"/>
+      <c r="E31" s="24"/>
+      <c r="F31" s="24"/>
+      <c r="G31" s="26"/>
+      <c r="H31" s="26"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A32" s="18"/>
-      <c r="B32" s="18"/>
-      <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="18"/>
-      <c r="F32" s="18"/>
-      <c r="G32" s="20"/>
-      <c r="H32" s="20"/>
+      <c r="A32" s="24"/>
+      <c r="B32" s="24"/>
+      <c r="C32" s="24"/>
+      <c r="D32" s="24"/>
+      <c r="E32" s="24"/>
+      <c r="F32" s="24"/>
+      <c r="G32" s="26"/>
+      <c r="H32" s="26"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A33" s="18"/>
-      <c r="B33" s="18"/>
-      <c r="C33" s="18"/>
-      <c r="D33" s="18"/>
-      <c r="E33" s="18"/>
-      <c r="F33" s="18"/>
-      <c r="G33" s="20"/>
-      <c r="H33" s="20"/>
+      <c r="A33" s="24"/>
+      <c r="B33" s="24"/>
+      <c r="C33" s="24"/>
+      <c r="D33" s="24"/>
+      <c r="E33" s="24"/>
+      <c r="F33" s="24"/>
+      <c r="G33" s="26"/>
+      <c r="H33" s="26"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4"/>
@@ -2439,7 +2496,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="6" t="s">
         <v>34</v>
       </c>
       <c r="B2" s="1">
@@ -2456,7 +2513,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A3" s="42"/>
+      <c r="A3" s="6"/>
       <c r="B3" s="1">
         <v>1.2</v>
       </c>
@@ -2471,7 +2528,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A4" s="42"/>
+      <c r="A4" s="6"/>
       <c r="B4" s="1">
         <v>1.3</v>
       </c>
@@ -2486,7 +2543,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A5" s="42"/>
+      <c r="A5" s="6"/>
       <c r="B5" s="1">
         <v>1.4</v>
       </c>
@@ -2501,7 +2558,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A6" s="42"/>
+      <c r="A6" s="6"/>
       <c r="B6" s="1">
         <v>1.5</v>
       </c>
@@ -2516,7 +2573,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A7" s="42"/>
+      <c r="A7" s="6"/>
       <c r="B7" s="1">
         <v>1.6</v>
       </c>
@@ -2531,7 +2588,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A8" s="42"/>
+      <c r="A8" s="6"/>
       <c r="B8" s="1">
         <v>1.7</v>
       </c>
@@ -2546,7 +2603,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A9" s="42"/>
+      <c r="A9" s="6"/>
       <c r="B9" s="1">
         <v>1.8</v>
       </c>
@@ -2561,7 +2618,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A10" s="42"/>
+      <c r="A10" s="6"/>
       <c r="B10" s="1">
         <v>1.9</v>
       </c>
@@ -2576,7 +2633,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A11" s="42" t="s">
+      <c r="A11" s="6" t="s">
         <v>35</v>
       </c>
       <c r="B11" s="1">
@@ -2593,7 +2650,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A12" s="42"/>
+      <c r="A12" s="6"/>
       <c r="B12" s="1">
         <v>2.2000000000000002</v>
       </c>
@@ -2608,7 +2665,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A13" s="42"/>
+      <c r="A13" s="6"/>
       <c r="B13" s="1">
         <v>2.2999999999999998</v>
       </c>
@@ -2623,7 +2680,7 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A14" s="42" t="s">
+      <c r="A14" s="6" t="s">
         <v>39</v>
       </c>
       <c r="B14" s="1">
@@ -2640,7 +2697,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A15" s="42"/>
+      <c r="A15" s="6"/>
       <c r="B15" s="1">
         <v>3.2</v>
       </c>
@@ -2655,7 +2712,7 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A16" s="42"/>
+      <c r="A16" s="6"/>
       <c r="B16" s="1">
         <v>3.3</v>
       </c>
@@ -2670,7 +2727,7 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A17" s="42" t="s">
+      <c r="A17" s="6" t="s">
         <v>57</v>
       </c>
       <c r="B17" s="1">
@@ -2687,7 +2744,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A18" s="42"/>
+      <c r="A18" s="6"/>
       <c r="B18" s="1">
         <v>4.2</v>
       </c>
@@ -2702,7 +2759,7 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A19" s="42"/>
+      <c r="A19" s="6"/>
       <c r="B19" s="1">
         <v>4.3</v>
       </c>
@@ -2717,7 +2774,7 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A20" s="43" t="s">
+      <c r="A20" s="7" t="s">
         <v>56</v>
       </c>
       <c r="B20" s="1">
@@ -2734,7 +2791,7 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A21" s="44"/>
+      <c r="A21" s="8"/>
       <c r="B21" s="1">
         <v>5.2</v>
       </c>
@@ -2749,7 +2806,7 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A22" s="44"/>
+      <c r="A22" s="8"/>
       <c r="B22" s="1">
         <v>5.3</v>
       </c>
@@ -2764,7 +2821,7 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A23" s="44"/>
+      <c r="A23" s="8"/>
       <c r="B23" s="1">
         <v>5.4</v>
       </c>
@@ -2779,7 +2836,7 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A24" s="44"/>
+      <c r="A24" s="8"/>
       <c r="B24" s="1">
         <v>5.5</v>
       </c>
@@ -2794,7 +2851,7 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A25" s="44"/>
+      <c r="A25" s="8"/>
       <c r="B25" s="1">
         <v>5.6</v>
       </c>
@@ -2809,7 +2866,7 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A26" s="44"/>
+      <c r="A26" s="8"/>
       <c r="B26" s="1">
         <v>5.7</v>
       </c>
@@ -2824,7 +2881,7 @@
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A27" s="44"/>
+      <c r="A27" s="8"/>
       <c r="B27" s="1">
         <v>5.8</v>
       </c>
@@ -2839,7 +2896,7 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A28" s="45"/>
+      <c r="A28" s="9"/>
       <c r="B28" s="1">
         <v>5.9</v>
       </c>
@@ -2854,19 +2911,19 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A29" s="34" t="s">
+      <c r="A29" s="4" t="s">
         <v>155</v>
       </c>
       <c r="B29" s="1">
         <v>6.1</v>
       </c>
-      <c r="C29" s="35" t="s">
+      <c r="C29" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="D29" s="35" t="s">
+      <c r="D29" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="E29" s="35" t="s">
+      <c r="E29" s="5" t="s">
         <v>158</v>
       </c>
     </row>
@@ -2875,13 +2932,13 @@
       <c r="B30" s="1">
         <v>6.2</v>
       </c>
-      <c r="C30" s="35" t="s">
+      <c r="C30" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="D30" s="35" t="s">
+      <c r="D30" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="E30" s="35" t="s">
+      <c r="E30" s="5" t="s">
         <v>161</v>
       </c>
     </row>

--- a/Experimental_Log/experiment.xlsx
+++ b/Experimental_Log/experiment.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Experiment" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="212">
   <si>
     <t>Test ID</t>
     <phoneticPr fontId="4"/>
@@ -891,6 +891,81 @@
   </si>
   <si>
     <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00000:87141731</t>
+    </r>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>prediction result is too high (around 1e12+)
+SGD is really sensitive to unscale data</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>Accuracy score: 0.687573764964
+Precision score: 0.233376275889
+Recall score: 0.234079915181</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>5.*</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>Raw feature with LiR and verify by kaggle</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>SGD (kaggle)</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>Hashing raw feature(size=50) with SGD and verify by kaggle</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>27mil:87141731</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>27mil:100000</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>LiR (kaggle)</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>LiR (kaggle)</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <r>
+      <t>R</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>aw feature with SGD and verify by custom convert</t>
+    </r>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <r>
       <t>5</t>
     </r>
     <r>
@@ -907,6 +982,22 @@
   </si>
   <si>
     <r>
+      <t>S</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>GD with custom result convert</t>
+    </r>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <r>
       <t>1</t>
     </r>
     <r>
@@ -923,7 +1014,7 @@
   </si>
   <si>
     <r>
-      <t>R</t>
+      <t>Scaled r</t>
     </r>
     <r>
       <rPr>
@@ -954,49 +1045,121 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>prediction result is too high (around 1e12+)
-SGD is really sensitive to unscale data</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>Accuracy score: 0.687573764964
-Precision score: 0.233376275889
-Recall score: 0.234079915181</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>5.*</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
+    <r>
+      <t>5</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="游ゴシック"/>
-        <family val="2"/>
+        <family val="3"/>
+        <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
-      <t>00000:87141731</t>
-    </r>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <r>
-      <t>Scaled r</t>
+      <t>.*</t>
+    </r>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <r>
+      <t>H</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="游ゴシック"/>
-        <family val="2"/>
+        <family val="3"/>
+        <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
-      <t>aw feature with SGD and verify by custom convert</t>
+      <t>ashing raw feature(size=20) with LiR and verify by kaggle</t>
+    </r>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>7mil:100000</t>
+    </r>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <r>
+      <t>R</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>aw feature with SGD and verify by kaggle</t>
+    </r>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.*</t>
+    </r>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <r>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>7141731:27mil</t>
+    </r>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <r>
+      <t>S</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>GD (kaggle)</t>
     </r>
     <phoneticPr fontId="4"/>
   </si>
@@ -1005,7 +1168,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1096,6 +1259,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
@@ -1248,7 +1419,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1378,6 +1549,15 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -1667,8 +1847,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2028,7 +2208,7 @@
     </row>
     <row r="14" spans="1:8" ht="112.5" x14ac:dyDescent="0.4">
       <c r="A14" s="27">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B14" s="27" t="s">
         <v>123</v>
@@ -2054,7 +2234,7 @@
     </row>
     <row r="15" spans="1:8" ht="112.5" x14ac:dyDescent="0.4">
       <c r="A15" s="30">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B15" s="30" t="s">
         <v>122</v>
@@ -2080,7 +2260,7 @@
     </row>
     <row r="16" spans="1:8" ht="112.5" x14ac:dyDescent="0.4">
       <c r="A16" s="27">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B16" s="27" t="s">
         <v>128</v>
@@ -2106,7 +2286,7 @@
     </row>
     <row r="17" spans="1:8" ht="112.5" x14ac:dyDescent="0.4">
       <c r="A17" s="27">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B17" s="27" t="s">
         <v>135</v>
@@ -2132,7 +2312,7 @@
     </row>
     <row r="18" spans="1:8" ht="112.5" x14ac:dyDescent="0.4">
       <c r="A18" s="35">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B18" s="35" t="s">
         <v>141</v>
@@ -2158,7 +2338,7 @@
     </row>
     <row r="19" spans="1:8" ht="112.5" x14ac:dyDescent="0.4">
       <c r="A19" s="38">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B19" s="38" t="s">
         <v>147</v>
@@ -2182,7 +2362,7 @@
     </row>
     <row r="20" spans="1:8" ht="112.5" x14ac:dyDescent="0.4">
       <c r="A20" s="41">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B20" s="41" t="s">
         <v>149</v>
@@ -2208,7 +2388,7 @@
     </row>
     <row r="21" spans="1:8" ht="112.5" x14ac:dyDescent="0.4">
       <c r="A21" s="24">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B21" s="24" t="s">
         <v>167</v>
@@ -2232,7 +2412,7 @@
     </row>
     <row r="22" spans="1:8" ht="112.5" x14ac:dyDescent="0.4">
       <c r="A22" s="24">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B22" s="24" t="s">
         <v>168</v>
@@ -2256,7 +2436,7 @@
     </row>
     <row r="23" spans="1:8" ht="93.75" x14ac:dyDescent="0.4">
       <c r="A23" s="24">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B23" s="24" t="s">
         <v>185</v>
@@ -2282,7 +2462,7 @@
     </row>
     <row r="24" spans="1:8" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A24" s="24">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B24" s="24" t="s">
         <v>184</v>
@@ -2308,7 +2488,7 @@
     </row>
     <row r="25" spans="1:8" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A25" s="24">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B25" s="24" t="s">
         <v>181</v>
@@ -2332,7 +2512,7 @@
     </row>
     <row r="26" spans="1:8" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A26" s="24">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B26" s="24" t="s">
         <v>182</v>
@@ -2356,93 +2536,149 @@
     </row>
     <row r="27" spans="1:8" ht="75" x14ac:dyDescent="0.4">
       <c r="A27" s="24">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B27" s="24" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="C27" s="24">
         <v>87141731</v>
       </c>
       <c r="D27" s="24" t="s">
-        <v>188</v>
+        <v>200</v>
       </c>
       <c r="E27" s="24" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="F27" s="24" t="s">
-        <v>189</v>
+        <v>202</v>
       </c>
       <c r="G27" s="26" t="s">
         <v>187</v>
       </c>
       <c r="H27" s="26" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A28" s="24">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B28" s="24" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="C28" s="24">
         <v>87141731</v>
       </c>
       <c r="D28" s="24" t="s">
+        <v>191</v>
+      </c>
+      <c r="E28" s="24" t="s">
+        <v>204</v>
+      </c>
+      <c r="F28" s="24" t="s">
+        <v>188</v>
+      </c>
+      <c r="G28" s="26" t="s">
+        <v>190</v>
+      </c>
+      <c r="H28" s="26"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A29" s="46">
+        <v>28</v>
+      </c>
+      <c r="B29" s="46" t="s">
+        <v>208</v>
+      </c>
+      <c r="C29" s="46">
+        <v>87141731</v>
+      </c>
+      <c r="D29" s="46" t="s">
+        <v>209</v>
+      </c>
+      <c r="E29" s="46" t="s">
+        <v>211</v>
+      </c>
+      <c r="F29" s="46" t="s">
+        <v>210</v>
+      </c>
+      <c r="G29" s="47">
+        <v>0.49896000000000001</v>
+      </c>
+      <c r="H29" s="48"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A30" s="46">
+        <v>29</v>
+      </c>
+      <c r="B30" s="46" t="s">
+        <v>192</v>
+      </c>
+      <c r="C30" s="46">
+        <v>87141731</v>
+      </c>
+      <c r="D30" s="46" t="s">
+        <v>209</v>
+      </c>
+      <c r="E30" s="46" t="s">
+        <v>197</v>
+      </c>
+      <c r="F30" s="46" t="s">
+        <v>196</v>
+      </c>
+      <c r="G30" s="47">
+        <v>0.49848999999999999</v>
+      </c>
+      <c r="H30" s="48"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A31" s="46">
+        <v>30</v>
+      </c>
+      <c r="B31" s="46" t="s">
         <v>194</v>
       </c>
-      <c r="E28" s="24" t="s">
-        <v>191</v>
-      </c>
-      <c r="F28" s="24" t="s">
+      <c r="C31" s="46">
+        <v>87141731</v>
+      </c>
+      <c r="D31" s="46" t="s">
+        <v>205</v>
+      </c>
+      <c r="E31" s="46" t="s">
+        <v>193</v>
+      </c>
+      <c r="F31" s="46" t="s">
         <v>195</v>
       </c>
-      <c r="G28" s="26" t="s">
-        <v>193</v>
-      </c>
-      <c r="H28" s="26"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A29" s="24"/>
-      <c r="B29" s="24"/>
-      <c r="C29" s="24"/>
-      <c r="D29" s="24"/>
-      <c r="E29" s="24"/>
-      <c r="F29" s="24"/>
-      <c r="G29" s="26"/>
-      <c r="H29" s="26"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A30" s="24"/>
-      <c r="B30" s="24"/>
-      <c r="C30" s="24"/>
-      <c r="D30" s="24"/>
-      <c r="E30" s="24"/>
-      <c r="F30" s="24"/>
-      <c r="G30" s="26"/>
-      <c r="H30" s="26"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A31" s="24"/>
-      <c r="B31" s="24"/>
-      <c r="C31" s="24"/>
-      <c r="D31" s="24"/>
-      <c r="E31" s="24"/>
-      <c r="F31" s="24"/>
-      <c r="G31" s="26"/>
-      <c r="H31" s="26"/>
+      <c r="G31" s="47">
+        <v>0.49080000000000001</v>
+      </c>
+      <c r="H31" s="48"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A32" s="24"/>
-      <c r="B32" s="24"/>
-      <c r="C32" s="24"/>
-      <c r="D32" s="24"/>
-      <c r="E32" s="24"/>
-      <c r="F32" s="24"/>
-      <c r="G32" s="26"/>
-      <c r="H32" s="26"/>
+      <c r="A32" s="46">
+        <v>31</v>
+      </c>
+      <c r="B32" s="46" t="s">
+        <v>206</v>
+      </c>
+      <c r="C32" s="46">
+        <v>87141731</v>
+      </c>
+      <c r="D32" s="46" t="s">
+        <v>205</v>
+      </c>
+      <c r="E32" s="46" t="s">
+        <v>198</v>
+      </c>
+      <c r="F32" s="46" t="s">
+        <v>207</v>
+      </c>
+      <c r="G32" s="47">
+        <v>0.50453000000000003</v>
+      </c>
+      <c r="H32" s="48"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A33" s="24"/>
